--- a/Mainboard/Project Outputs for Mainboard/Mainboard_V1.0 CPL.xlsx
+++ b/Mainboard/Project Outputs for Mainboard/Mainboard_V1.0 CPL.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\GoogleDrive\MSE\PA-OST-2023\heron-hardware\Mainboard\Project Outputs for Mainboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11D6FB7C-C5BE-45C2-8A31-BE703AFD9B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACEF4D4-D82E-45A0-8DFB-544D15C747E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21000"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pick Place for Mainboard_V1.0" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="283">
   <si>
     <t>Designator</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Rotation</t>
   </si>
   <si>
@@ -409,12 +406,6 @@
     <t>SMD_IC_SOT-363_(SC-70-6)</t>
   </si>
   <si>
-    <t>Designator2</t>
-  </si>
-  <si>
-    <t>MEC_Display_Module_(Seeed_Studio_105481)</t>
-  </si>
-  <si>
     <t>K1</t>
   </si>
   <si>
@@ -760,27 +751,6 @@
     <t>SMD_Transformer_500x375</t>
   </si>
   <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>SMD_Transformer_749119950</t>
-  </si>
-  <si>
-    <t>TP1</t>
-  </si>
-  <si>
-    <t>X-TP</t>
-  </si>
-  <si>
-    <t>THT_Testpunkt_Ø1mm</t>
-  </si>
-  <si>
-    <t>TP2</t>
-  </si>
-  <si>
-    <t>TP3</t>
-  </si>
-  <si>
     <t>TP4</t>
   </si>
   <si>
@@ -790,39 +760,12 @@
     <t>THT_Messpunkt_Ø2.54mm_Schwarz</t>
   </si>
   <si>
-    <t>TP5</t>
-  </si>
-  <si>
-    <t>TP6</t>
-  </si>
-  <si>
-    <t>TP7</t>
-  </si>
-  <si>
-    <t>TP8</t>
-  </si>
-  <si>
-    <t>TP9</t>
-  </si>
-  <si>
-    <t>TP10</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
     <t>MCP1700T-1802</t>
   </si>
   <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>Teensy 4.1</t>
-  </si>
-  <si>
-    <t>THT_Teensy_4.1</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
@@ -850,33 +793,6 @@
     <t>SMD_IC_LGA-12</t>
   </si>
   <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>NEO-M8P-2</t>
-  </si>
-  <si>
-    <t>SMD_NEO-M8P-2</t>
-  </si>
-  <si>
-    <t>U7A</t>
-  </si>
-  <si>
-    <t>ADAU7118</t>
-  </si>
-  <si>
-    <t>SMD_IC_QFN-16</t>
-  </si>
-  <si>
-    <t>U7B</t>
-  </si>
-  <si>
-    <t>U7C</t>
-  </si>
-  <si>
-    <t>U7D</t>
-  </si>
-  <si>
     <t>X1</t>
   </si>
   <si>
@@ -886,15 +802,6 @@
     <t>THT_USB-C_Socket_(KH-TYPE-C-L10-14P)</t>
   </si>
   <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>NE8FBV-C5-LED1-S</t>
-  </si>
-  <si>
-    <t>THT_CONNECTOR_NE8FBV-C5-LED1-S</t>
-  </si>
-  <si>
     <t>X3</t>
   </si>
   <si>
@@ -902,18 +809,6 @@
   </si>
   <si>
     <t>THT_Buchsenleiste_4-Pol_(1x4)</t>
-  </si>
-  <si>
-    <t>X4</t>
-  </si>
-  <si>
-    <t>54201-G0807LF</t>
-  </si>
-  <si>
-    <t>SMD_PIN-HEADER_1X7</t>
-  </si>
-  <si>
-    <t>X5</t>
   </si>
   <si>
     <t>X6</t>
@@ -979,7 +874,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1457,8 +1352,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1814,11 +1708,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G218"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,37 +1726,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1874,18 +1768,18 @@
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
       <c r="D3">
         <v>2.75</v>
@@ -1897,18 +1791,18 @@
         <v>270</v>
       </c>
       <c r="G3" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
       <c r="D4">
         <v>4.75</v>
@@ -1920,18 +1814,18 @@
         <v>270</v>
       </c>
       <c r="G4" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
       <c r="D5">
         <v>-22.5</v>
@@ -1943,18 +1837,18 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
       </c>
       <c r="D6">
         <v>-22.5</v>
@@ -1966,18 +1860,18 @@
         <v>180</v>
       </c>
       <c r="G6" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
       </c>
       <c r="D7">
         <v>-22.5</v>
@@ -1989,18 +1883,18 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
       </c>
       <c r="D8">
         <v>-22.5</v>
@@ -2012,18 +1906,18 @@
         <v>180</v>
       </c>
       <c r="G8" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
         <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
       </c>
       <c r="D9">
         <v>-17</v>
@@ -2035,18 +1929,18 @@
         <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
       </c>
       <c r="D10">
         <v>28.75</v>
@@ -2058,18 +1952,18 @@
         <v>270</v>
       </c>
       <c r="G10" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
       </c>
       <c r="D11">
         <v>-31.25</v>
@@ -2081,18 +1975,18 @@
         <v>270</v>
       </c>
       <c r="G11" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>22</v>
@@ -2104,18 +1998,18 @@
         <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>24.25</v>
@@ -2127,18 +2021,18 @@
         <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>13.5</v>
@@ -2150,18 +2044,18 @@
         <v>180</v>
       </c>
       <c r="G14" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>28</v>
@@ -2173,18 +2067,18 @@
         <v>270</v>
       </c>
       <c r="G15" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>27.25</v>
@@ -2196,18 +2090,18 @@
         <v>270</v>
       </c>
       <c r="G16" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>18.25</v>
@@ -2219,18 +2113,18 @@
         <v>270</v>
       </c>
       <c r="G17" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18">
         <v>11</v>
@@ -2242,18 +2136,18 @@
         <v>270</v>
       </c>
       <c r="G18" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
         <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -2265,18 +2159,18 @@
         <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
       </c>
       <c r="D20">
         <v>19.25</v>
@@ -2288,18 +2182,18 @@
         <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>-18.75</v>
@@ -2311,18 +2205,18 @@
         <v>180</v>
       </c>
       <c r="G21" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>-18.75</v>
@@ -2334,18 +2228,18 @@
         <v>180</v>
       </c>
       <c r="G22" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>-18.75</v>
@@ -2357,18 +2251,18 @@
         <v>180</v>
       </c>
       <c r="G23" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>-18.75</v>
@@ -2380,18 +2274,18 @@
         <v>180</v>
       </c>
       <c r="G24" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
         <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
       </c>
       <c r="D25">
         <v>15.25</v>
@@ -2403,18 +2297,18 @@
         <v>180</v>
       </c>
       <c r="G25" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>11.25</v>
@@ -2426,18 +2320,18 @@
         <v>270</v>
       </c>
       <c r="G26" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>33</v>
@@ -2449,18 +2343,18 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
         <v>19</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
       </c>
       <c r="D28">
         <v>-9</v>
@@ -2472,18 +2366,18 @@
         <v>270</v>
       </c>
       <c r="G28" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
         <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
       </c>
       <c r="D29">
         <v>54.25</v>
@@ -2495,18 +2389,18 @@
         <v>270</v>
       </c>
       <c r="G29" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
         <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
       </c>
       <c r="D30">
         <v>52.25</v>
@@ -2518,18 +2412,18 @@
         <v>270</v>
       </c>
       <c r="G30" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
         <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>10</v>
       </c>
       <c r="D31">
         <v>68.25</v>
@@ -2541,18 +2435,18 @@
         <v>180</v>
       </c>
       <c r="G31" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
         <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
       </c>
       <c r="D32">
         <v>67.5</v>
@@ -2564,18 +2458,18 @@
         <v>180</v>
       </c>
       <c r="G32" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
         <v>51</v>
       </c>
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>70</v>
@@ -2587,18 +2481,18 @@
         <v>90</v>
       </c>
       <c r="G33" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>14.478</v>
@@ -2610,18 +2504,18 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>10.922000000000001</v>
@@ -2633,18 +2527,18 @@
         <v>180</v>
       </c>
       <c r="G35" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2656,18 +2550,18 @@
         <v>180</v>
       </c>
       <c r="G36" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>24.109000000000002</v>
@@ -2679,18 +2573,18 @@
         <v>157.5</v>
       </c>
       <c r="G37" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>44.547699999999999</v>
@@ -2702,18 +2596,18 @@
         <v>135</v>
       </c>
       <c r="G38" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <v>58.2044</v>
@@ -2725,18 +2619,18 @@
         <v>112.499998093</v>
       </c>
       <c r="G39" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>63</v>
@@ -2748,18 +2642,18 @@
         <v>90</v>
       </c>
       <c r="G40" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>58.2044</v>
@@ -2771,18 +2665,18 @@
         <v>67.500001907300003</v>
       </c>
       <c r="G41" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>44.547699999999999</v>
@@ -2794,18 +2688,18 @@
         <v>45</v>
       </c>
       <c r="G42" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43">
         <v>24.109100000000002</v>
@@ -2817,18 +2711,18 @@
         <v>22.5</v>
       </c>
       <c r="G43" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2840,18 +2734,18 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <v>-24.109000000000002</v>
@@ -2863,18 +2757,18 @@
         <v>337.49999237100002</v>
       </c>
       <c r="G45" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46">
         <v>-44.547699999999999</v>
@@ -2886,18 +2780,18 @@
         <v>315</v>
       </c>
       <c r="G46" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>-58.2044</v>
@@ -2909,18 +2803,18 @@
         <v>292.49998474099999</v>
       </c>
       <c r="G47" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>-63</v>
@@ -2932,18 +2826,18 @@
         <v>270</v>
       </c>
       <c r="G48" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>-58.2044</v>
@@ -2955,18 +2849,18 @@
         <v>247.50001525900001</v>
       </c>
       <c r="G49" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50">
         <v>-44.547699999999999</v>
@@ -2978,18 +2872,18 @@
         <v>225</v>
       </c>
       <c r="G50" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <v>-24.109100000000002</v>
@@ -3001,18 +2895,18 @@
         <v>202.50000762900001</v>
       </c>
       <c r="G51" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3024,18 +2918,18 @@
         <v>180</v>
       </c>
       <c r="G52" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
         <v>5</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
       </c>
       <c r="D53">
         <v>27.5</v>
@@ -3047,18 +2941,18 @@
         <v>135</v>
       </c>
       <c r="G53" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
         <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
       </c>
       <c r="D54">
         <v>23.5</v>
@@ -3070,18 +2964,18 @@
         <v>315</v>
       </c>
       <c r="G54" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55">
         <v>39.75</v>
@@ -3093,18 +2987,18 @@
         <v>270</v>
       </c>
       <c r="G55" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
         <v>5</v>
-      </c>
-      <c r="C56" t="s">
-        <v>6</v>
       </c>
       <c r="D56">
         <v>24.75</v>
@@ -3116,18 +3010,18 @@
         <v>135</v>
       </c>
       <c r="G56" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
         <v>76</v>
       </c>
-      <c r="B57" t="s">
-        <v>77</v>
-      </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57">
         <v>42.25</v>
@@ -3139,18 +3033,18 @@
         <v>270</v>
       </c>
       <c r="G57" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
         <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
       </c>
       <c r="D58">
         <v>22.079599999999999</v>
@@ -3162,18 +3056,18 @@
         <v>337.5</v>
       </c>
       <c r="G58" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
         <v>5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
       </c>
       <c r="D59">
         <v>22.5579</v>
@@ -3185,18 +3079,18 @@
         <v>337.5</v>
       </c>
       <c r="G59" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60">
         <v>-30.4437</v>
@@ -3208,18 +3102,18 @@
         <v>22.500007629399999</v>
       </c>
       <c r="G60" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
         <v>9</v>
-      </c>
-      <c r="C61" t="s">
-        <v>10</v>
       </c>
       <c r="D61">
         <v>-31.701000000000001</v>
@@ -3231,18 +3125,18 @@
         <v>292.50000762899998</v>
       </c>
       <c r="G61" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62">
         <v>23.036300000000001</v>
@@ -3254,18 +3148,18 @@
         <v>337.5</v>
       </c>
       <c r="G62" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
         <v>9</v>
-      </c>
-      <c r="C63" t="s">
-        <v>10</v>
       </c>
       <c r="D63">
         <v>20.1526</v>
@@ -3277,18 +3171,18 @@
         <v>247.5</v>
       </c>
       <c r="G63" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
         <v>5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>6</v>
       </c>
       <c r="D64">
         <v>63.103999999999999</v>
@@ -3300,18 +3194,18 @@
         <v>247.5</v>
       </c>
       <c r="G64" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
         <v>5</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
       </c>
       <c r="D65">
         <v>64.258799999999994</v>
@@ -3323,18 +3217,18 @@
         <v>247.5</v>
       </c>
       <c r="G65" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66">
         <v>63.698399999999999</v>
@@ -3346,18 +3240,18 @@
         <v>292.50000762899998</v>
       </c>
       <c r="G66" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
         <v>9</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
       </c>
       <c r="D67">
         <v>60.201099999999997</v>
@@ -3369,18 +3263,18 @@
         <v>202.50000762900001</v>
       </c>
       <c r="G67" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68">
         <v>65.413700000000006</v>
@@ -3392,18 +3286,18 @@
         <v>247.5</v>
       </c>
       <c r="G68" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
         <v>9</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
       </c>
       <c r="D69">
         <v>64.9846</v>
@@ -3415,18 +3309,18 @@
         <v>157.5</v>
       </c>
       <c r="G69" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
         <v>5</v>
-      </c>
-      <c r="C70" t="s">
-        <v>6</v>
       </c>
       <c r="D70">
         <v>-22.079599999999999</v>
@@ -3438,18 +3332,18 @@
         <v>157.49873352099999</v>
       </c>
       <c r="G70" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
         <v>5</v>
-      </c>
-      <c r="C71" t="s">
-        <v>6</v>
       </c>
       <c r="D71">
         <v>-22.558199999999999</v>
@@ -3461,18 +3355,18 @@
         <v>157.49873352099999</v>
       </c>
       <c r="G71" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72">
         <v>30.4435</v>
@@ -3484,18 +3378,18 @@
         <v>202.49874115</v>
       </c>
       <c r="G72" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
         <v>9</v>
-      </c>
-      <c r="C73" t="s">
-        <v>10</v>
       </c>
       <c r="D73">
         <v>31.700900000000001</v>
@@ -3507,18 +3401,18 @@
         <v>112.49874115</v>
       </c>
       <c r="G73" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74">
         <v>-23.0365</v>
@@ -3530,18 +3424,18 @@
         <v>157.49873352099999</v>
       </c>
       <c r="G74" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
         <v>9</v>
-      </c>
-      <c r="C75" t="s">
-        <v>10</v>
       </c>
       <c r="D75">
         <v>-20.152799999999999</v>
@@ -3553,18 +3447,18 @@
         <v>67.498733520499997</v>
       </c>
       <c r="G75" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
         <v>5</v>
-      </c>
-      <c r="C76" t="s">
-        <v>6</v>
       </c>
       <c r="D76">
         <v>-63.103999999999999</v>
@@ -3576,18 +3470,18 @@
         <v>67.5</v>
       </c>
       <c r="G76" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
         <v>5</v>
-      </c>
-      <c r="C77" t="s">
-        <v>6</v>
       </c>
       <c r="D77">
         <v>-64.258799999999994</v>
@@ -3599,18 +3493,18 @@
         <v>67.5</v>
       </c>
       <c r="G77" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78">
         <v>-63.698399999999999</v>
@@ -3622,18 +3516,18 @@
         <v>112.500007629</v>
       </c>
       <c r="G78" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
         <v>9</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
       </c>
       <c r="D79">
         <v>-60.201099999999997</v>
@@ -3645,18 +3539,18 @@
         <v>22.500007629399999</v>
       </c>
       <c r="G79" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80">
         <v>-65.413700000000006</v>
@@ -3668,18 +3562,18 @@
         <v>67.5</v>
       </c>
       <c r="G80" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
         <v>9</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
       </c>
       <c r="D81">
         <v>-64.9846</v>
@@ -3691,18 +3585,18 @@
         <v>337.5</v>
       </c>
       <c r="G81" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" t="s">
         <v>102</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>103</v>
-      </c>
-      <c r="C82" t="s">
-        <v>104</v>
       </c>
       <c r="D82">
         <v>-35.871000000000002</v>
@@ -3714,18 +3608,18 @@
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B83" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" t="s">
         <v>103</v>
-      </c>
-      <c r="C83" t="s">
-        <v>104</v>
       </c>
       <c r="D83">
         <v>24.25</v>
@@ -3737,18 +3631,18 @@
         <v>90</v>
       </c>
       <c r="G83" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" t="s">
         <v>106</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>107</v>
-      </c>
-      <c r="C84" t="s">
-        <v>108</v>
       </c>
       <c r="D84">
         <v>22.5</v>
@@ -3760,18 +3654,18 @@
         <v>180</v>
       </c>
       <c r="G84" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" t="s">
         <v>107</v>
-      </c>
-      <c r="C85" t="s">
-        <v>108</v>
       </c>
       <c r="D85">
         <v>-24</v>
@@ -3783,18 +3677,18 @@
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" t="s">
         <v>107</v>
-      </c>
-      <c r="C86" t="s">
-        <v>108</v>
       </c>
       <c r="D86">
         <v>-24</v>
@@ -3806,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" t="s">
         <v>107</v>
-      </c>
-      <c r="C87" t="s">
-        <v>108</v>
       </c>
       <c r="D87">
         <v>-24</v>
@@ -3829,18 +3723,18 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" t="s">
         <v>107</v>
-      </c>
-      <c r="C88" t="s">
-        <v>108</v>
       </c>
       <c r="D88">
         <v>-24</v>
@@ -3852,18 +3746,18 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" t="s">
         <v>113</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>114</v>
-      </c>
-      <c r="C89" t="s">
-        <v>115</v>
       </c>
       <c r="D89">
         <v>17.75</v>
@@ -3875,18 +3769,18 @@
         <v>90</v>
       </c>
       <c r="G89" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" t="s">
         <v>107</v>
-      </c>
-      <c r="C90" t="s">
-        <v>108</v>
       </c>
       <c r="D90">
         <v>-16.5</v>
@@ -3898,18 +3792,18 @@
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B91" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" t="s">
         <v>107</v>
-      </c>
-      <c r="C91" t="s">
-        <v>108</v>
       </c>
       <c r="D91">
         <v>-16.5</v>
@@ -3921,18 +3815,18 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B92" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" t="s">
         <v>107</v>
-      </c>
-      <c r="C92" t="s">
-        <v>108</v>
       </c>
       <c r="D92">
         <v>-16.5</v>
@@ -3944,18 +3838,18 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" t="s">
         <v>107</v>
-      </c>
-      <c r="C93" t="s">
-        <v>108</v>
       </c>
       <c r="D93">
         <v>-16.5</v>
@@ -3967,18 +3861,18 @@
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" t="s">
         <v>120</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>121</v>
-      </c>
-      <c r="C94" t="s">
-        <v>122</v>
       </c>
       <c r="D94">
         <v>33</v>
@@ -3990,18 +3884,18 @@
         <v>270</v>
       </c>
       <c r="G94" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" t="s">
         <v>123</v>
       </c>
-      <c r="B95" t="s">
-        <v>124</v>
-      </c>
       <c r="C95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D95">
         <v>-50</v>
@@ -4013,18 +3907,18 @@
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" t="s">
         <v>103</v>
-      </c>
-      <c r="C96" t="s">
-        <v>104</v>
       </c>
       <c r="D96">
         <v>35.871000000000002</v>
@@ -4036,18 +3930,18 @@
         <v>180</v>
       </c>
       <c r="G96" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" t="s">
         <v>126</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>127</v>
-      </c>
-      <c r="C97" t="s">
-        <v>128</v>
       </c>
       <c r="D97">
         <v>35</v>
@@ -4059,30 +3953,30 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" t="s">
         <v>129</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1</v>
       </c>
       <c r="C98" t="s">
         <v>130</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E98">
-        <v>1.905</v>
+        <v>-38</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G98" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4096,16 +3990,16 @@
         <v>133</v>
       </c>
       <c r="D99">
-        <v>33</v>
+        <v>-42.5</v>
       </c>
       <c r="E99">
-        <v>-38</v>
+        <v>-11.5</v>
       </c>
       <c r="F99">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G99" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4116,111 +4010,111 @@
         <v>135</v>
       </c>
       <c r="C100" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D100">
-        <v>-42.5</v>
+        <v>23.114000000000001</v>
       </c>
       <c r="E100">
-        <v>-11.5</v>
+        <v>28.956</v>
       </c>
       <c r="F100">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G100" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101">
+        <v>600</v>
+      </c>
+      <c r="C101" t="s">
         <v>137</v>
       </c>
-      <c r="B101" t="s">
-        <v>138</v>
-      </c>
-      <c r="C101" t="s">
-        <v>136</v>
-      </c>
       <c r="D101">
-        <v>23.114000000000001</v>
+        <v>-28.75</v>
       </c>
       <c r="E101">
-        <v>28.956</v>
+        <v>-35.5</v>
       </c>
       <c r="F101">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G101" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B102">
         <v>600</v>
       </c>
       <c r="C102" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D102">
-        <v>-28.75</v>
+        <v>-14.25</v>
       </c>
       <c r="E102">
-        <v>-35.5</v>
+        <v>-55.5</v>
       </c>
       <c r="F102">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G102" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B103">
         <v>600</v>
       </c>
       <c r="C103" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D103">
-        <v>-14.25</v>
+        <v>26.25</v>
       </c>
       <c r="E103">
-        <v>-55.5</v>
+        <v>17.25</v>
       </c>
       <c r="F103">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="G103" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" t="s">
+        <v>141</v>
+      </c>
+      <c r="C104" t="s">
         <v>142</v>
       </c>
-      <c r="B104">
-        <v>600</v>
-      </c>
-      <c r="C104" t="s">
-        <v>140</v>
-      </c>
       <c r="D104">
-        <v>26.25</v>
+        <v>43.875</v>
       </c>
       <c r="E104">
-        <v>17.25</v>
+        <v>28.5</v>
       </c>
       <c r="F104">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4234,16 +4128,16 @@
         <v>145</v>
       </c>
       <c r="D105">
-        <v>43.875</v>
+        <v>47.729700000000001</v>
       </c>
       <c r="E105">
-        <v>28.5</v>
+        <v>47.729700000000001</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="G105" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4251,114 +4145,114 @@
         <v>146</v>
       </c>
       <c r="B106" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C106" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D106">
-        <v>47.729700000000001</v>
+        <v>-47.729700000000001</v>
       </c>
       <c r="E106">
         <v>47.729700000000001</v>
       </c>
       <c r="F106">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="G106" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B107" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C107" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D107">
         <v>-47.729700000000001</v>
       </c>
       <c r="E107">
-        <v>47.729700000000001</v>
+        <v>-47.729700000000001</v>
       </c>
       <c r="F107">
-        <v>225</v>
+        <v>315</v>
       </c>
       <c r="G107" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B108" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C108" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D108">
-        <v>-47.729700000000001</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>-47.729700000000001</v>
+        <v>-67.5</v>
       </c>
       <c r="F108">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B109" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C109" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>48.083300000000001</v>
       </c>
       <c r="E109">
-        <v>-67.5</v>
+        <v>-48.083300000000001</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G109" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" t="s">
         <v>152</v>
       </c>
-      <c r="B110" t="s">
-        <v>147</v>
-      </c>
-      <c r="C110" t="s">
-        <v>148</v>
-      </c>
       <c r="D110">
-        <v>48.083300000000001</v>
+        <v>-7</v>
       </c>
       <c r="E110">
-        <v>-48.083300000000001</v>
+        <v>-31.35</v>
       </c>
       <c r="F110">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="G110" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4369,10 +4263,10 @@
         <v>154</v>
       </c>
       <c r="C111" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D111">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="E111">
         <v>-31.35</v>
@@ -4381,53 +4275,53 @@
         <v>270</v>
       </c>
       <c r="G111" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B112" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C112" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D112">
-        <v>7</v>
+        <v>45.5</v>
       </c>
       <c r="E112">
-        <v>-31.35</v>
+        <v>9.25</v>
       </c>
       <c r="F112">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="G112" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>156</v>
+      </c>
+      <c r="B113" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" t="s">
         <v>158</v>
       </c>
-      <c r="B113" t="s">
-        <v>154</v>
-      </c>
-      <c r="C113" t="s">
-        <v>155</v>
-      </c>
       <c r="D113">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>9.25</v>
+        <v>41</v>
       </c>
       <c r="F113">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="G113" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4435,436 +4329,436 @@
         <v>159</v>
       </c>
       <c r="B114" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C114" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F114">
         <v>180</v>
       </c>
       <c r="G114" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C115" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>23.343699999999998</v>
       </c>
       <c r="E115">
-        <v>61</v>
+        <v>56.356699999999996</v>
       </c>
       <c r="F115">
-        <v>180</v>
+        <v>157.5</v>
       </c>
       <c r="G115" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B116" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C116" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D116">
-        <v>23.343699999999998</v>
+        <v>43.133499999999998</v>
       </c>
       <c r="E116">
-        <v>56.356699999999996</v>
+        <v>43.133499999999998</v>
       </c>
       <c r="F116">
-        <v>157.5</v>
+        <v>135</v>
       </c>
       <c r="G116" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B117" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C117" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D117">
-        <v>43.133499999999998</v>
+        <v>56.356699999999996</v>
       </c>
       <c r="E117">
-        <v>43.133499999999998</v>
+        <v>23.343699999999998</v>
       </c>
       <c r="F117">
-        <v>135</v>
+        <v>112.5</v>
       </c>
       <c r="G117" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B118" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C118" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D118">
-        <v>56.356699999999996</v>
+        <v>61</v>
       </c>
       <c r="E118">
-        <v>23.343699999999998</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>112.5</v>
+        <v>90</v>
       </c>
       <c r="G118" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B119" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C119" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D119">
-        <v>61</v>
+        <v>56.356699999999996</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>-23.343699999999998</v>
       </c>
       <c r="F119">
-        <v>90</v>
+        <v>67.5</v>
       </c>
       <c r="G119" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B120" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C120" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D120">
-        <v>56.356699999999996</v>
+        <v>43.133499999999998</v>
       </c>
       <c r="E120">
-        <v>-23.343699999999998</v>
+        <v>-43.133499999999998</v>
       </c>
       <c r="F120">
-        <v>67.5</v>
+        <v>45</v>
       </c>
       <c r="G120" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B121" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C121" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D121">
-        <v>43.133499999999998</v>
+        <v>23.343699999999998</v>
       </c>
       <c r="E121">
-        <v>-43.133499999999998</v>
+        <v>-56.356699999999996</v>
       </c>
       <c r="F121">
-        <v>45</v>
+        <v>22.5</v>
       </c>
       <c r="G121" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B122" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C122" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D122">
-        <v>23.343699999999998</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>-56.356699999999996</v>
+        <v>-61</v>
       </c>
       <c r="F122">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B123" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C123" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>-23.343699999999998</v>
       </c>
       <c r="E123">
-        <v>-61</v>
+        <v>-56.356699999999996</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>337.49999237100002</v>
       </c>
       <c r="G123" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B124" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C124" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D124">
-        <v>-23.343699999999998</v>
+        <v>-43.133499999999998</v>
       </c>
       <c r="E124">
-        <v>-56.356699999999996</v>
+        <v>-43.133499999999998</v>
       </c>
       <c r="F124">
-        <v>337.49999237100002</v>
+        <v>315</v>
       </c>
       <c r="G124" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B125" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C125" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D125">
-        <v>-43.133499999999998</v>
+        <v>-56.356699999999996</v>
       </c>
       <c r="E125">
-        <v>-43.133499999999998</v>
+        <v>-23.343699999999998</v>
       </c>
       <c r="F125">
-        <v>315</v>
+        <v>292.49998474099999</v>
       </c>
       <c r="G125" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C126" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D126">
-        <v>-56.356699999999996</v>
+        <v>-61</v>
       </c>
       <c r="E126">
-        <v>-23.343699999999998</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>292.49998474099999</v>
+        <v>270</v>
       </c>
       <c r="G126" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B127" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C127" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D127">
-        <v>-61</v>
+        <v>-56.356699999999996</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>23.343699999999998</v>
       </c>
       <c r="F127">
-        <v>270</v>
+        <v>247.50001525900001</v>
       </c>
       <c r="G127" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B128" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C128" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D128">
-        <v>-56.356699999999996</v>
+        <v>-43.133499999999998</v>
       </c>
       <c r="E128">
-        <v>23.343699999999998</v>
+        <v>43.133499999999998</v>
       </c>
       <c r="F128">
-        <v>247.50001525900001</v>
+        <v>225</v>
       </c>
       <c r="G128" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B129" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C129" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D129">
-        <v>-43.133499999999998</v>
+        <v>-23.343699999999998</v>
       </c>
       <c r="E129">
-        <v>43.133499999999998</v>
+        <v>56.356699999999996</v>
       </c>
       <c r="F129">
-        <v>225</v>
+        <v>202.50000762900001</v>
       </c>
       <c r="G129" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B130" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C130" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D130">
-        <v>-23.343699999999998</v>
+        <v>41</v>
       </c>
       <c r="E130">
-        <v>56.356699999999996</v>
+        <v>13.75</v>
       </c>
       <c r="F130">
-        <v>202.50000762900001</v>
+        <v>45</v>
       </c>
       <c r="G130" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B131" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C131" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D131">
-        <v>41</v>
+        <v>43.25</v>
       </c>
       <c r="E131">
-        <v>13.75</v>
+        <v>11.5</v>
       </c>
       <c r="F131">
         <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>178</v>
+      </c>
+      <c r="B132" t="s">
+        <v>179</v>
+      </c>
+      <c r="C132" t="s">
         <v>180</v>
       </c>
-      <c r="B132" t="s">
-        <v>157</v>
-      </c>
-      <c r="C132" t="s">
-        <v>155</v>
-      </c>
       <c r="D132">
-        <v>43.25</v>
+        <v>-50</v>
       </c>
       <c r="E132">
-        <v>11.5</v>
+        <v>-15</v>
       </c>
       <c r="F132">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="G132" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4878,16 +4772,16 @@
         <v>183</v>
       </c>
       <c r="D133">
-        <v>-50</v>
+        <v>61.949100000000001</v>
       </c>
       <c r="E133">
-        <v>-15</v>
+        <v>-21.601199999999999</v>
       </c>
       <c r="F133">
-        <v>270</v>
+        <v>247.5</v>
       </c>
       <c r="G133" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4895,542 +4789,542 @@
         <v>184</v>
       </c>
       <c r="B134" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C134" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D134">
-        <v>61.949100000000001</v>
+        <v>-21.601199999999999</v>
       </c>
       <c r="E134">
-        <v>-21.601199999999999</v>
+        <v>-61.949199999999998</v>
       </c>
       <c r="F134">
-        <v>247.5</v>
+        <v>337.5</v>
       </c>
       <c r="G134" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B135" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C135" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D135">
-        <v>-21.601199999999999</v>
+        <v>-40.75</v>
       </c>
       <c r="E135">
-        <v>-61.949199999999998</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>337.5</v>
+        <v>270</v>
       </c>
       <c r="G135" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B136" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C136" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D136">
-        <v>-40.75</v>
+        <v>-29.25</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="G136" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>190</v>
-      </c>
-      <c r="B137" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="B137">
+        <v>270</v>
       </c>
       <c r="C137" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D137">
-        <v>-29.25</v>
+        <v>4</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="F137">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G137" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>191</v>
-      </c>
-      <c r="B138">
-        <v>270</v>
+        <v>189</v>
+      </c>
+      <c r="B138" t="s">
+        <v>190</v>
       </c>
       <c r="C138" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>29.5</v>
       </c>
       <c r="E138">
-        <v>-26</v>
+        <v>-45.5</v>
       </c>
       <c r="F138">
         <v>270</v>
       </c>
       <c r="G138" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>192</v>
-      </c>
-      <c r="B139" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="B139">
+        <v>8.1999999999999993</v>
       </c>
       <c r="C139" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D139">
-        <v>29.5</v>
+        <v>27.25</v>
       </c>
       <c r="E139">
-        <v>-45.5</v>
+        <v>-23.25</v>
       </c>
       <c r="F139">
         <v>270</v>
       </c>
       <c r="G139" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>194</v>
-      </c>
-      <c r="B140">
-        <v>8.1999999999999993</v>
+        <v>192</v>
+      </c>
+      <c r="B140" t="s">
+        <v>193</v>
       </c>
       <c r="C140" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D140">
-        <v>27.25</v>
+        <v>43.5</v>
       </c>
       <c r="E140">
-        <v>-23.25</v>
+        <v>7.25</v>
       </c>
       <c r="F140">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="G140" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>194</v>
+      </c>
+      <c r="B141" t="s">
         <v>195</v>
       </c>
-      <c r="B141" t="s">
-        <v>196</v>
-      </c>
       <c r="C141" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D141">
-        <v>43.5</v>
+        <v>19.25</v>
       </c>
       <c r="E141">
-        <v>7.25</v>
+        <v>-56</v>
       </c>
       <c r="F141">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="G141" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>196</v>
+      </c>
+      <c r="B142" t="s">
         <v>197</v>
       </c>
-      <c r="B142" t="s">
-        <v>198</v>
-      </c>
       <c r="C142" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D142">
         <v>19.25</v>
       </c>
       <c r="E142">
-        <v>-56</v>
+        <v>-53</v>
       </c>
       <c r="F142">
         <v>180</v>
       </c>
       <c r="G142" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>199</v>
-      </c>
-      <c r="B143" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="B143">
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D143">
-        <v>19.25</v>
+        <v>28.75</v>
       </c>
       <c r="E143">
-        <v>-53</v>
+        <v>-33.25</v>
       </c>
       <c r="F143">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G143" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B144">
         <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D144">
-        <v>28.75</v>
+        <v>20.25</v>
       </c>
       <c r="E144">
-        <v>-33.25</v>
+        <v>-51.5</v>
       </c>
       <c r="F144">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>202</v>
-      </c>
-      <c r="B145">
-        <v>10</v>
+        <v>200</v>
+      </c>
+      <c r="B145" t="s">
+        <v>201</v>
       </c>
       <c r="C145" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D145">
-        <v>20.25</v>
+        <v>15.25</v>
       </c>
       <c r="E145">
-        <v>-51.5</v>
+        <v>-51.25</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>202</v>
+      </c>
+      <c r="B146" t="s">
         <v>203</v>
       </c>
-      <c r="B146" t="s">
-        <v>204</v>
-      </c>
       <c r="C146" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D146">
-        <v>15.25</v>
+        <v>28.75</v>
       </c>
       <c r="E146">
-        <v>-51.25</v>
+        <v>-29.25</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G146" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>205</v>
-      </c>
-      <c r="B147" t="s">
-        <v>206</v>
+        <v>204</v>
+      </c>
+      <c r="B147">
+        <v>750</v>
       </c>
       <c r="C147" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D147">
-        <v>28.75</v>
+        <v>29.5</v>
       </c>
       <c r="E147">
-        <v>-29.25</v>
+        <v>-31.25</v>
       </c>
       <c r="F147">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G147" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B148">
-        <v>750</v>
+        <v>75</v>
       </c>
       <c r="C148" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D148">
-        <v>29.5</v>
+        <v>-21.5</v>
       </c>
       <c r="E148">
-        <v>-31.25</v>
+        <v>-49.75</v>
       </c>
       <c r="F148">
         <v>180</v>
       </c>
       <c r="G148" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B149">
         <v>75</v>
       </c>
       <c r="C149" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D149">
         <v>-21.5</v>
       </c>
       <c r="E149">
-        <v>-49.75</v>
+        <v>-54.25</v>
       </c>
       <c r="F149">
         <v>180</v>
       </c>
       <c r="G149" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B150">
         <v>75</v>
       </c>
       <c r="C150" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D150">
         <v>-21.5</v>
       </c>
       <c r="E150">
-        <v>-54.25</v>
+        <v>-45.25</v>
       </c>
       <c r="F150">
         <v>180</v>
       </c>
       <c r="G150" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B151">
         <v>75</v>
       </c>
       <c r="C151" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D151">
         <v>-21.5</v>
       </c>
       <c r="E151">
-        <v>-45.25</v>
+        <v>-40.75</v>
       </c>
       <c r="F151">
         <v>180</v>
       </c>
       <c r="G151" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B152">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C152" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D152">
-        <v>-21.5</v>
+        <v>16</v>
       </c>
       <c r="E152">
-        <v>-40.75</v>
+        <v>-58.5</v>
       </c>
       <c r="F152">
         <v>180</v>
       </c>
       <c r="G152" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B153">
-        <v>3</v>
+        <v>48.7</v>
       </c>
       <c r="C153" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D153">
-        <v>16</v>
+        <v>19.25</v>
       </c>
       <c r="E153">
-        <v>-58.5</v>
+        <v>-54.5</v>
       </c>
       <c r="F153">
         <v>180</v>
       </c>
       <c r="G153" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B154">
-        <v>48.7</v>
+        <v>0.62</v>
       </c>
       <c r="C154" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D154">
-        <v>19.25</v>
+        <v>13</v>
       </c>
       <c r="E154">
-        <v>-54.5</v>
+        <v>-50.5</v>
       </c>
       <c r="F154">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G154" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>214</v>
-      </c>
-      <c r="B155">
-        <v>0.62</v>
+        <v>212</v>
+      </c>
+      <c r="B155" t="s">
+        <v>213</v>
       </c>
       <c r="C155" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D155">
-        <v>13</v>
+        <v>30.25</v>
       </c>
       <c r="E155">
-        <v>-50.5</v>
+        <v>-29.25</v>
       </c>
       <c r="F155">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G155" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="C156" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D156">
-        <v>30.25</v>
+        <v>-8.89</v>
       </c>
       <c r="E156">
-        <v>-29.25</v>
+        <v>36.533999999999999</v>
       </c>
       <c r="F156">
         <v>270</v>
       </c>
       <c r="G156" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B157" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C157" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D157">
-        <v>-8.89</v>
+        <v>-11.43</v>
       </c>
       <c r="E157">
         <v>36.533999999999999</v>
@@ -5439,67 +5333,67 @@
         <v>270</v>
       </c>
       <c r="G157" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B158" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="C158" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D158">
-        <v>-11.43</v>
+        <v>50</v>
       </c>
       <c r="E158">
-        <v>36.533999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="F158">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B159" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C159" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D159">
-        <v>50</v>
+        <v>66.75</v>
       </c>
       <c r="E159">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G159" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B160" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C160" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D160">
-        <v>66.75</v>
+        <v>68.25</v>
       </c>
       <c r="E160">
         <v>3.25</v>
@@ -5508,274 +5402,274 @@
         <v>90</v>
       </c>
       <c r="G160" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B161" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C161" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D161">
-        <v>68.25</v>
+        <v>19.05</v>
       </c>
       <c r="E161">
-        <v>3.25</v>
+        <v>51.816000000000003</v>
       </c>
       <c r="F161">
         <v>90</v>
       </c>
       <c r="G161" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B162" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="C162" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D162">
-        <v>19.05</v>
+        <v>21.59</v>
       </c>
       <c r="E162">
         <v>51.816000000000003</v>
       </c>
       <c r="F162">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G162" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B163" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="C163" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D163">
-        <v>21.59</v>
+        <v>-39.75</v>
       </c>
       <c r="E163">
-        <v>51.816000000000003</v>
+        <v>-11.5</v>
       </c>
       <c r="F163">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="G163" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B164" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C164" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D164">
-        <v>-39.75</v>
+        <v>25.654</v>
       </c>
       <c r="E164">
-        <v>-11.5</v>
+        <v>28.956</v>
       </c>
       <c r="F164">
         <v>90</v>
       </c>
       <c r="G164" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>226</v>
-      </c>
-      <c r="B165" t="s">
-        <v>220</v>
+        <v>224</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
       </c>
       <c r="C165" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D165">
-        <v>25.654</v>
+        <v>41</v>
       </c>
       <c r="E165">
-        <v>28.956</v>
+        <v>27.75</v>
       </c>
       <c r="F165">
         <v>90</v>
       </c>
       <c r="G165" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>227</v>
-      </c>
-      <c r="B166">
-        <v>10</v>
+        <v>225</v>
+      </c>
+      <c r="B166" t="s">
+        <v>186</v>
       </c>
       <c r="C166" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D166">
-        <v>41</v>
+        <v>40.75</v>
       </c>
       <c r="E166">
-        <v>27.75</v>
+        <v>0</v>
       </c>
       <c r="F166">
         <v>90</v>
       </c>
       <c r="G166" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B167" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C167" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D167">
-        <v>40.75</v>
+        <v>29.25</v>
       </c>
       <c r="E167">
         <v>0</v>
       </c>
       <c r="F167">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G167" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B168" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C168" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D168">
-        <v>29.25</v>
+        <v>41.25</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="F168">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="G168" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B169" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C169" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D169">
-        <v>41.25</v>
+        <v>39</v>
       </c>
       <c r="E169">
-        <v>9.5</v>
+        <v>11.75</v>
       </c>
       <c r="F169">
         <v>225</v>
       </c>
       <c r="G169" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B170" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="C170" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D170">
-        <v>39</v>
+        <v>28.75</v>
       </c>
       <c r="E170">
-        <v>11.75</v>
+        <v>16</v>
       </c>
       <c r="F170">
         <v>225</v>
       </c>
       <c r="G170" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B171" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="C171" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D171">
-        <v>28.75</v>
+        <v>8.89</v>
       </c>
       <c r="E171">
-        <v>16</v>
+        <v>51.816000000000003</v>
       </c>
       <c r="F171">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="G171" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B172" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C172" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D172">
-        <v>8.89</v>
+        <v>11.43</v>
       </c>
       <c r="E172">
         <v>51.816000000000003</v>
@@ -5784,214 +5678,214 @@
         <v>270</v>
       </c>
       <c r="G172" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>234</v>
-      </c>
-      <c r="B173" t="s">
-        <v>189</v>
+        <v>232</v>
+      </c>
+      <c r="B173">
+        <v>10</v>
       </c>
       <c r="C173" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D173">
-        <v>11.43</v>
+        <v>23.514600000000002</v>
       </c>
       <c r="E173">
-        <v>51.816000000000003</v>
+        <v>66.568600000000004</v>
       </c>
       <c r="F173">
-        <v>270</v>
+        <v>157.5</v>
       </c>
       <c r="G173" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B174">
         <v>10</v>
       </c>
       <c r="C174" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D174">
-        <v>23.514600000000002</v>
+        <v>29.5199</v>
       </c>
       <c r="E174">
-        <v>66.568600000000004</v>
+        <v>64.081100000000006</v>
       </c>
       <c r="F174">
-        <v>157.5</v>
+        <v>337.5</v>
       </c>
       <c r="G174" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B175">
         <v>10</v>
       </c>
       <c r="C175" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D175">
-        <v>29.5199</v>
+        <v>66.568600000000004</v>
       </c>
       <c r="E175">
-        <v>64.081100000000006</v>
+        <v>-23.514600000000002</v>
       </c>
       <c r="F175">
-        <v>337.5</v>
+        <v>67.5</v>
       </c>
       <c r="G175" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B176">
         <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D176">
-        <v>66.568600000000004</v>
+        <v>64.081100000000006</v>
       </c>
       <c r="E176">
-        <v>-23.514600000000002</v>
+        <v>-29.5199</v>
       </c>
       <c r="F176">
-        <v>67.5</v>
+        <v>247.5</v>
       </c>
       <c r="G176" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B177">
         <v>10</v>
       </c>
       <c r="C177" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D177">
-        <v>64.081100000000006</v>
+        <v>-23.514600000000002</v>
       </c>
       <c r="E177">
-        <v>-29.5199</v>
+        <v>-66.568600000000004</v>
       </c>
       <c r="F177">
-        <v>247.5</v>
+        <v>337.49873352100002</v>
       </c>
       <c r="G177" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B178">
         <v>10</v>
       </c>
       <c r="C178" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D178">
-        <v>-23.514600000000002</v>
+        <v>-29.5199</v>
       </c>
       <c r="E178">
-        <v>-66.568600000000004</v>
+        <v>-64.081100000000006</v>
       </c>
       <c r="F178">
-        <v>337.49873352100002</v>
+        <v>157.49873352099999</v>
       </c>
       <c r="G178" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B179">
         <v>10</v>
       </c>
       <c r="C179" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D179">
-        <v>-29.5199</v>
+        <v>-66.568600000000004</v>
       </c>
       <c r="E179">
-        <v>-64.081100000000006</v>
+        <v>23.514600000000002</v>
       </c>
       <c r="F179">
-        <v>157.49873352099999</v>
+        <v>247.5</v>
       </c>
       <c r="G179" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B180">
         <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D180">
-        <v>-66.568600000000004</v>
+        <v>-64.081100000000006</v>
       </c>
       <c r="E180">
-        <v>23.514600000000002</v>
+        <v>29.5199</v>
       </c>
       <c r="F180">
-        <v>247.5</v>
+        <v>67.5</v>
       </c>
       <c r="G180" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>240</v>
+      </c>
+      <c r="B181" t="s">
+        <v>241</v>
+      </c>
+      <c r="C181" t="s">
         <v>242</v>
       </c>
-      <c r="B181">
-        <v>10</v>
-      </c>
-      <c r="C181" t="s">
-        <v>186</v>
-      </c>
       <c r="D181">
-        <v>-64.081100000000006</v>
+        <v>-20.25</v>
       </c>
       <c r="E181">
-        <v>29.5199</v>
+        <v>-31.25</v>
       </c>
       <c r="F181">
-        <v>67.5</v>
+        <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -6005,39 +5899,39 @@
         <v>245</v>
       </c>
       <c r="D182">
-        <v>-20.25</v>
+        <v>50</v>
       </c>
       <c r="E182">
-        <v>-31.25</v>
+        <v>-10</v>
       </c>
       <c r="F182">
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>246</v>
       </c>
-      <c r="B183">
-        <v>749119950</v>
+      <c r="B183" t="s">
+        <v>247</v>
       </c>
       <c r="C183" t="s">
-        <v>247</v>
+        <v>121</v>
       </c>
       <c r="D183">
-        <v>20.25</v>
+        <v>0</v>
       </c>
       <c r="E183">
-        <v>-37.75</v>
+        <v>55</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G183" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -6051,16 +5945,16 @@
         <v>250</v>
       </c>
       <c r="D184">
-        <v>-3</v>
+        <v>14.75</v>
       </c>
       <c r="E184">
-        <v>53.5</v>
+        <v>-55</v>
       </c>
       <c r="F184">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G184" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -6068,257 +5962,257 @@
         <v>251</v>
       </c>
       <c r="B185" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C185" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D185">
-        <v>-3</v>
+        <v>50</v>
       </c>
       <c r="E185">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B186" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C186" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D186">
-        <v>-3</v>
+        <v>67.5</v>
       </c>
       <c r="E186">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G186" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B187" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C187" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D187">
-        <v>50</v>
+        <v>-35</v>
       </c>
       <c r="E187">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G187" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B188" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C188" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D188">
-        <v>28.75</v>
+        <v>-51.221600000000002</v>
       </c>
       <c r="E188">
-        <v>-42.5</v>
+        <v>3.4567000000000001</v>
       </c>
       <c r="F188">
-        <v>90</v>
+        <v>22.5</v>
       </c>
       <c r="G188" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B189" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C189" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D189">
-        <v>22.25</v>
+        <v>35</v>
       </c>
       <c r="E189">
-        <v>-51.5</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B190" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="C190" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="D190">
-        <v>16</v>
+        <v>44.354799999999997</v>
       </c>
       <c r="E190">
-        <v>-48.25</v>
+        <v>33.104799999999997</v>
       </c>
       <c r="F190">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G190" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B191" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="C191" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="D191">
-        <v>14.5</v>
+        <v>-26.6539</v>
       </c>
       <c r="E191">
-        <v>-48.25</v>
+        <v>63.765700000000002</v>
       </c>
       <c r="F191">
-        <v>90</v>
+        <v>202.50000762900001</v>
       </c>
       <c r="G191" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B192" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="C192" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="D192">
-        <v>-16</v>
+        <v>26.6539</v>
       </c>
       <c r="E192">
-        <v>-55.5</v>
+        <v>63.765700000000002</v>
       </c>
       <c r="F192">
-        <v>90</v>
+        <v>157.5</v>
       </c>
       <c r="G192" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B193" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="C193" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="D193">
-        <v>30.25</v>
+        <v>63.765700000000002</v>
       </c>
       <c r="E193">
-        <v>-27</v>
+        <v>26.6539</v>
       </c>
       <c r="F193">
-        <v>180</v>
+        <v>112.500007629</v>
       </c>
       <c r="G193" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B194" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C194" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>63.765700000000002</v>
       </c>
       <c r="E194">
-        <v>55</v>
+        <v>-26.6539</v>
       </c>
       <c r="F194">
-        <v>180</v>
+        <v>67.5</v>
       </c>
       <c r="G194" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B195" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C195" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>26.653700000000001</v>
       </c>
       <c r="E195">
-        <v>41</v>
+        <v>-63.765099999999997</v>
       </c>
       <c r="F195">
-        <v>270</v>
+        <v>22.498741149899999</v>
       </c>
       <c r="G195" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B196" t="s">
         <v>268</v>
@@ -6327,522 +6221,62 @@
         <v>269</v>
       </c>
       <c r="D196">
-        <v>14.75</v>
+        <v>-26.6541</v>
       </c>
       <c r="E196">
-        <v>-55</v>
+        <v>-63.764000000000003</v>
       </c>
       <c r="F196">
-        <v>270</v>
+        <v>337.49873352100002</v>
       </c>
       <c r="G196" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B197" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C197" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D197">
-        <v>50</v>
+        <v>-63.765700000000002</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>-26.6539</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>292.50000762899998</v>
       </c>
       <c r="G197" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B198" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C198" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D198">
-        <v>67.5</v>
+        <v>-63.765700000000002</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>26.6539</v>
       </c>
       <c r="F198">
-        <v>270</v>
+        <v>247.5</v>
       </c>
       <c r="G198" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>276</v>
-      </c>
-      <c r="B199" t="s">
-        <v>277</v>
-      </c>
-      <c r="C199" t="s">
-        <v>278</v>
-      </c>
-      <c r="D199">
-        <v>34.259700000000002</v>
-      </c>
-      <c r="E199">
-        <v>23.009699999999999</v>
-      </c>
-      <c r="F199">
-        <v>225</v>
-      </c>
-      <c r="G199" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>279</v>
-      </c>
-      <c r="B200" t="s">
-        <v>280</v>
-      </c>
-      <c r="C200" t="s">
-        <v>281</v>
-      </c>
-      <c r="D200">
-        <v>25.831099999999999</v>
-      </c>
-      <c r="E200">
-        <v>62.361899999999999</v>
-      </c>
-      <c r="F200">
-        <v>247.5</v>
-      </c>
-      <c r="G200" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
         <v>282</v>
-      </c>
-      <c r="B201" t="s">
-        <v>280</v>
-      </c>
-      <c r="C201" t="s">
-        <v>281</v>
-      </c>
-      <c r="D201">
-        <v>62.361899999999999</v>
-      </c>
-      <c r="E201">
-        <v>-25.831099999999999</v>
-      </c>
-      <c r="F201">
-        <v>157.5</v>
-      </c>
-      <c r="G201" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>283</v>
-      </c>
-      <c r="B202" t="s">
-        <v>280</v>
-      </c>
-      <c r="C202" t="s">
-        <v>281</v>
-      </c>
-      <c r="D202">
-        <v>-25.831299999999999</v>
-      </c>
-      <c r="E202">
-        <v>-62.360100000000003</v>
-      </c>
-      <c r="F202">
-        <v>67.498733520499997</v>
-      </c>
-      <c r="G202" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>284</v>
-      </c>
-      <c r="B203" t="s">
-        <v>280</v>
-      </c>
-      <c r="C203" t="s">
-        <v>281</v>
-      </c>
-      <c r="D203">
-        <v>-62.361899999999999</v>
-      </c>
-      <c r="E203">
-        <v>25.831099999999999</v>
-      </c>
-      <c r="F203">
-        <v>337.5</v>
-      </c>
-      <c r="G203" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>285</v>
-      </c>
-      <c r="B204" t="s">
-        <v>286</v>
-      </c>
-      <c r="C204" t="s">
-        <v>287</v>
-      </c>
-      <c r="D204">
-        <v>-35</v>
-      </c>
-      <c r="E204">
-        <v>0</v>
-      </c>
-      <c r="F204">
-        <v>180</v>
-      </c>
-      <c r="G204" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>288</v>
-      </c>
-      <c r="B205" t="s">
-        <v>289</v>
-      </c>
-      <c r="C205" t="s">
-        <v>290</v>
-      </c>
-      <c r="D205">
-        <v>0</v>
-      </c>
-      <c r="E205">
-        <v>-43.65</v>
-      </c>
-      <c r="F205">
-        <v>180</v>
-      </c>
-      <c r="G205" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>291</v>
-      </c>
-      <c r="B206" t="s">
-        <v>292</v>
-      </c>
-      <c r="C206" t="s">
-        <v>293</v>
-      </c>
-      <c r="D206">
-        <v>-51.221600000000002</v>
-      </c>
-      <c r="E206">
-        <v>3.4567000000000001</v>
-      </c>
-      <c r="F206">
-        <v>22.5</v>
-      </c>
-      <c r="G206" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>294</v>
-      </c>
-      <c r="B207" t="s">
-        <v>295</v>
-      </c>
-      <c r="C207" t="s">
-        <v>296</v>
-      </c>
-      <c r="D207">
-        <v>7.62</v>
-      </c>
-      <c r="E207">
-        <v>-7.62</v>
-      </c>
-      <c r="F207">
-        <v>180</v>
-      </c>
-      <c r="G207" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>297</v>
-      </c>
-      <c r="B208" t="s">
-        <v>295</v>
-      </c>
-      <c r="C208" t="s">
-        <v>296</v>
-      </c>
-      <c r="D208">
-        <v>7.62</v>
-      </c>
-      <c r="E208">
-        <v>7.62</v>
-      </c>
-      <c r="F208">
-        <v>0</v>
-      </c>
-      <c r="G208" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>298</v>
-      </c>
-      <c r="B209" t="s">
-        <v>286</v>
-      </c>
-      <c r="C209" t="s">
-        <v>287</v>
-      </c>
-      <c r="D209">
-        <v>35</v>
-      </c>
-      <c r="E209">
-        <v>0</v>
-      </c>
-      <c r="F209">
-        <v>0</v>
-      </c>
-      <c r="G209" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>299</v>
-      </c>
-      <c r="B210" t="s">
-        <v>300</v>
-      </c>
-      <c r="C210" t="s">
-        <v>301</v>
-      </c>
-      <c r="D210">
-        <v>44.354799999999997</v>
-      </c>
-      <c r="E210">
-        <v>33.104799999999997</v>
-      </c>
-      <c r="F210">
-        <v>0</v>
-      </c>
-      <c r="G210" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>302</v>
-      </c>
-      <c r="B211" t="s">
-        <v>303</v>
-      </c>
-      <c r="C211" t="s">
-        <v>304</v>
-      </c>
-      <c r="D211">
-        <v>-26.6539</v>
-      </c>
-      <c r="E211">
-        <v>63.765700000000002</v>
-      </c>
-      <c r="F211">
-        <v>202.50000762900001</v>
-      </c>
-      <c r="G211" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>305</v>
-      </c>
-      <c r="B212" t="s">
-        <v>303</v>
-      </c>
-      <c r="C212" t="s">
-        <v>304</v>
-      </c>
-      <c r="D212">
-        <v>26.6539</v>
-      </c>
-      <c r="E212">
-        <v>63.765700000000002</v>
-      </c>
-      <c r="F212">
-        <v>157.5</v>
-      </c>
-      <c r="G212" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>306</v>
-      </c>
-      <c r="B213" t="s">
-        <v>303</v>
-      </c>
-      <c r="C213" t="s">
-        <v>304</v>
-      </c>
-      <c r="D213">
-        <v>63.765700000000002</v>
-      </c>
-      <c r="E213">
-        <v>26.6539</v>
-      </c>
-      <c r="F213">
-        <v>112.500007629</v>
-      </c>
-      <c r="G213" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>307</v>
-      </c>
-      <c r="B214" t="s">
-        <v>303</v>
-      </c>
-      <c r="C214" t="s">
-        <v>304</v>
-      </c>
-      <c r="D214">
-        <v>63.765700000000002</v>
-      </c>
-      <c r="E214">
-        <v>-26.6539</v>
-      </c>
-      <c r="F214">
-        <v>67.5</v>
-      </c>
-      <c r="G214" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>308</v>
-      </c>
-      <c r="B215" t="s">
-        <v>303</v>
-      </c>
-      <c r="C215" t="s">
-        <v>304</v>
-      </c>
-      <c r="D215">
-        <v>26.653700000000001</v>
-      </c>
-      <c r="E215">
-        <v>-63.765099999999997</v>
-      </c>
-      <c r="F215">
-        <v>22.498741149899999</v>
-      </c>
-      <c r="G215" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>309</v>
-      </c>
-      <c r="B216" t="s">
-        <v>303</v>
-      </c>
-      <c r="C216" t="s">
-        <v>304</v>
-      </c>
-      <c r="D216">
-        <v>-26.6541</v>
-      </c>
-      <c r="E216">
-        <v>-63.764000000000003</v>
-      </c>
-      <c r="F216">
-        <v>337.49873352100002</v>
-      </c>
-      <c r="G216" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>310</v>
-      </c>
-      <c r="B217" t="s">
-        <v>303</v>
-      </c>
-      <c r="C217" t="s">
-        <v>304</v>
-      </c>
-      <c r="D217">
-        <v>-63.765700000000002</v>
-      </c>
-      <c r="E217">
-        <v>-26.6539</v>
-      </c>
-      <c r="F217">
-        <v>292.50000762899998</v>
-      </c>
-      <c r="G217" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>311</v>
-      </c>
-      <c r="B218" t="s">
-        <v>303</v>
-      </c>
-      <c r="C218" t="s">
-        <v>304</v>
-      </c>
-      <c r="D218">
-        <v>-63.765700000000002</v>
-      </c>
-      <c r="E218">
-        <v>26.6539</v>
-      </c>
-      <c r="F218">
-        <v>247.5</v>
-      </c>
-      <c r="G218" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>
